--- a/weeks.xlsx
+++ b/weeks.xlsx
@@ -14,162 +14,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>1. Hafta (0/12-05/01.2019)</t>
-  </si>
-  <si>
-    <t>2. Hafta (06-05/01.2019)</t>
-  </si>
-  <si>
-    <t>3. Hafta (06-05/01.2019)</t>
-  </si>
-  <si>
-    <t>4. Hafta (06-05/01.2019)</t>
-  </si>
-  <si>
-    <t>5. Hafta (06/01-02/02.2019)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>1. Hafta (30/12.2019-05/01.2020)</t>
+  </si>
+  <si>
+    <t>2. Hafta (06-12/01.2019)</t>
+  </si>
+  <si>
+    <t>3. Hafta (13-19/01.2019)</t>
+  </si>
+  <si>
+    <t>4. Hafta (20-26/01.2019)</t>
   </si>
   <si>
     <t>6. Hafta (03-09/02.2019)</t>
   </si>
   <si>
-    <t>7. Hafta (03-09/02.2019)</t>
-  </si>
-  <si>
-    <t>8. Hafta (03-09/02.2019)</t>
-  </si>
-  <si>
-    <t>9. Hafta (03-09/02.2019)</t>
+    <t>7. Hafta (10-16/02.2019)</t>
+  </si>
+  <si>
+    <t>8. Hafta (17-23/02.2019)</t>
+  </si>
+  <si>
+    <t>9. Hafta (24-30/02.2019)</t>
   </si>
   <si>
     <t>10. Hafta (01-07/03.2019)</t>
   </si>
   <si>
-    <t>11. Hafta (08-07/03.2019)</t>
-  </si>
-  <si>
-    <t>12. Hafta (08-07/03.2019)</t>
-  </si>
-  <si>
-    <t>13. Hafta (08-07/03.2019)</t>
-  </si>
-  <si>
-    <t>14. Hafta (08/03-04/04.2019)</t>
-  </si>
-  <si>
-    <t>15. Hafta (05-04/04.2019)</t>
-  </si>
-  <si>
-    <t>16. Hafta (05-04/04.2019)</t>
-  </si>
-  <si>
-    <t>17. Hafta (05-04/04.2019)</t>
-  </si>
-  <si>
-    <t>18. Hafta (05/04-02/05.2019)</t>
+    <t>11. Hafta (08-14/03.2019)</t>
+  </si>
+  <si>
+    <t>12. Hafta (15-21/03.2019)</t>
+  </si>
+  <si>
+    <t>13. Hafta (22-28/03.2019)</t>
+  </si>
+  <si>
+    <t>15. Hafta (05-11/04.2019)</t>
+  </si>
+  <si>
+    <t>16. Hafta (12-18/04.2019)</t>
+  </si>
+  <si>
+    <t>17. Hafta (19-25/04.2019)</t>
   </si>
   <si>
     <t>19. Hafta (03-09/05.2019)</t>
   </si>
   <si>
-    <t>20. Hafta (03-09/05.2019)</t>
-  </si>
-  <si>
-    <t>21. Hafta (03-09/05.2019)</t>
-  </si>
-  <si>
-    <t>22. Hafta (03-09/05.2019)</t>
-  </si>
-  <si>
-    <t>23. Hafta (03/05-06/06.2019)</t>
-  </si>
-  <si>
-    <t>24. Hafta (07-06/06.2019)</t>
-  </si>
-  <si>
-    <t>25. Hafta (07-06/06.2019)</t>
-  </si>
-  <si>
-    <t>26. Hafta (07-06/06.2019)</t>
-  </si>
-  <si>
-    <t>27. Hafta (07/06-04/07.2019)</t>
-  </si>
-  <si>
-    <t>28. Hafta (05-04/07.2019)</t>
-  </si>
-  <si>
-    <t>29. Hafta (05-04/07.2019)</t>
-  </si>
-  <si>
-    <t>30. Hafta (05-04/07.2019)</t>
-  </si>
-  <si>
-    <t>31. Hafta (05/07-01/08.2019)</t>
+    <t>20. Hafta (10-16/05.2019)</t>
+  </si>
+  <si>
+    <t>21. Hafta (17-23/05.2019)</t>
+  </si>
+  <si>
+    <t>22. Hafta (24-30/05.2019)</t>
+  </si>
+  <si>
+    <t>24. Hafta (07-13/06.2019)</t>
+  </si>
+  <si>
+    <t>25. Hafta (14-20/06.2019)</t>
+  </si>
+  <si>
+    <t>26. Hafta (21-27/06.2019)</t>
+  </si>
+  <si>
+    <t>28. Hafta (05-11/07.2019)</t>
+  </si>
+  <si>
+    <t>29. Hafta (12-18/07.2019)</t>
+  </si>
+  <si>
+    <t>30. Hafta (19-25/07.2019)</t>
   </si>
   <si>
     <t>32. Hafta (02-08/08.2019)</t>
   </si>
   <si>
-    <t>33. Hafta (09-08/08.2019)</t>
-  </si>
-  <si>
-    <t>34. Hafta (09-08/08.2019)</t>
-  </si>
-  <si>
-    <t>35. Hafta (09-08/08.2019)</t>
-  </si>
-  <si>
-    <t>36. Hafta (09/08-05/09.2019)</t>
-  </si>
-  <si>
-    <t>37. Hafta (06-05/09.2019)</t>
-  </si>
-  <si>
-    <t>38. Hafta (06-05/09.2019)</t>
-  </si>
-  <si>
-    <t>39. Hafta (06-05/09.2019)</t>
-  </si>
-  <si>
-    <t>40. Hafta (06/09-03/10.2019)</t>
-  </si>
-  <si>
-    <t>41. Hafta (04-03/10.2019)</t>
-  </si>
-  <si>
-    <t>42. Hafta (04-03/10.2019)</t>
-  </si>
-  <si>
-    <t>43. Hafta (04-03/10.2019)</t>
-  </si>
-  <si>
-    <t>44. Hafta (04-03/10.2019)</t>
+    <t>33. Hafta (09-15/08.2019)</t>
+  </si>
+  <si>
+    <t>34. Hafta (16-22/08.2019)</t>
+  </si>
+  <si>
+    <t>35. Hafta (23-29/08.2019)</t>
+  </si>
+  <si>
+    <t>37. Hafta (06-12/09.2019)</t>
+  </si>
+  <si>
+    <t>38. Hafta (13-19/09.2019)</t>
+  </si>
+  <si>
+    <t>39. Hafta (20-26/09.2019)</t>
+  </si>
+  <si>
+    <t>40. Hafta (27/09-03/10.2019)</t>
+  </si>
+  <si>
+    <t>41. Hafta (04-10/10.2019)</t>
+  </si>
+  <si>
+    <t>42. Hafta (11-17/10.2019)</t>
+  </si>
+  <si>
+    <t>43. Hafta (18-24/10.2019)</t>
+  </si>
+  <si>
+    <t>44. Hafta (25-31/10.2019)</t>
   </si>
   <si>
     <t>45. Hafta (01-07/11.2019)</t>
   </si>
   <si>
-    <t>46. Hafta (08-07/11.2019)</t>
-  </si>
-  <si>
-    <t>47. Hafta (08-07/11.2019)</t>
-  </si>
-  <si>
-    <t>48. Hafta (08-07/11.2019)</t>
-  </si>
-  <si>
-    <t>49. Hafta (08/11-05/12.2019)</t>
-  </si>
-  <si>
-    <t>50. Hafta (06-05/12.2019)</t>
-  </si>
-  <si>
-    <t>51. Hafta (06-05/12.2019)</t>
-  </si>
-  <si>
-    <t>52. Hafta (06-05/12.2019)</t>
+    <t>46. Hafta (08-14/11.2019)</t>
+  </si>
+  <si>
+    <t>47. Hafta (15-21/11.2019)</t>
+  </si>
+  <si>
+    <t>48. Hafta (22-28/11.2019)</t>
+  </si>
+  <si>
+    <t>49. Hafta (29/11-05/12.2019)</t>
+  </si>
+  <si>
+    <t>50. Hafta (06-12/12.2019)</t>
+  </si>
+  <si>
+    <t>51. Hafta (13-19/12.2019)</t>
+  </si>
+  <si>
+    <t>52. Hafta (20-26/12.2019)</t>
+  </si>
+  <si>
+    <t>53. Hafta (27/12.2019-02/01.2020)</t>
   </si>
 </sst>
 </file>
@@ -512,168 +494,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ1"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
